--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.arkhn.com/osiris/ValueSet/Pathogenicity</t>
+    <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/ValueSet/Pathogenicity</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:52:24+01:00</t>
+    <t>2023-03-28T11:28:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T12:16:37+02:00</t>
+    <t>2023-04-06T18:12:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T18:12:15+02:00</t>
+    <t>2023-04-06T19:36:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Pathogenicity.xlsx
+++ b/output/ValueSet-Pathogenicity.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from OSIRIS" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Unified Medical " r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +128,15 @@
   </si>
   <si>
     <t>https://github.com/siric-osiris/OSIRIS</t>
+  </si>
+  <si>
+    <t>C0439673</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
 </sst>
 </file>
@@ -468,4 +478,53 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>